--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V54"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5425,6 +5425,98 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45191.86458333334</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>St. Liege</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>17/09/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-liege-westerlo/MFrCP7qC/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>St. Truiden</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:57</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.45</v>
+        <v>4.57</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:53</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>6.31</v>
+        <v>5.52</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>13/08/2023 19:42</t>
+          <t>13/08/2023 18:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>6.41</v>
+        <v>5.25</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20/08/2023 15:59</t>
+          <t>20/08/2023 15:58</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-st-truiden/SxmvNg6G/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-charleroi/xlfRPeMc/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>St. Truiden</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>4.57</v>
+        <v>4.45</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:53</t>
+          <t>20/08/2023 15:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>5.52</v>
+        <v>6.31</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>13/08/2023 18:42</t>
+          <t>13/08/2023 19:42</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>5.25</v>
+        <v>6.41</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 15:58</t>
+          <t>20/08/2023 15:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-charleroi/xlfRPeMc/</t>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-st-truiden/SxmvNg6G/</t>
         </is>
       </c>
     </row>
@@ -5514,6 +5514,650 @@
       <c r="V55" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/st-liege-westerlo/MFrCP7qC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/charleroi-kortrijk/GxrGORbI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45192.76041666666</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>KV Mechelen</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Leuven</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:14</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:14</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/kv-mechelen-leuven/rPq8QmU5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45192.86458333334</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>RWDM</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:44</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/antwerp-rwd-molenbeek/UoBaUVUt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45193.5625</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:04</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:05</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>6</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:05</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/genk-st-truiden/xCE7S9ag/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45193.66666666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Cercle Brugge KSV</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Royale Union SG</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>16/09/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>24/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/cercle-brugge-royale-union-sg/rkF3Tkpm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45193.77083333334</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Club Brugge KV</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/anderlecht-club-brugge/G2DBRTEa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45193.80208333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:11</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:11</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:11</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/gent-eupen/llcVob0E/</t>
         </is>
       </c>
     </row>

--- a/2023/belgium_jupiler-pro-league_2023-2024.xlsx
+++ b/2023/belgium_jupiler-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V62"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6161,6 +6161,98 @@
         </is>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>belgium</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>jupiler-pro-league</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45196.86458333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:27</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>27/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/belgium/jupiler-pro-league/antwerp-gent/xCxEGiqp/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
